--- a/biology/Écologie/Judith_H._Myers/Judith_H._Myers.xlsx
+++ b/biology/Écologie/Judith_H._Myers/Judith_H._Myers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judith (Judy) H. Myers est une écologue américano-canadienne. En 2014, elle est élue présidente de la Société canadienne d’écologie et d’évolution. Judith Myers est connue pour ses travaux concernant les interactions entre plantes, animaux et microbes, telles que les épidémies d’insectes ravageurs et les pathogènes et virus affectant les insectes. Elle a aussi produit un travail séminal sur les techniques de lutte biologique contre les insectes et les plantes, en particulier des espèces invasives. Durant sa carrière, elle a aussi milité vigoureusement pour une meilleure représentation et la participation des femmes dans les disciplines STIM (science, technologie, ingénierie et mathématiques). 
 Judith Myers est une fiduciaire de la Société canadienne d’entomologie ; en 2004, elle reçoit la Médaille d’or de cette société pour ses travaux théoriques et pratiques de lutte biologique. Elle est aussi récipiendaire du McCarthy Award accordé par l’Association professionnelle de lutte biologique de Colombie Britannique. En tant qu’auteure, ses travaux sont largement disponibles dans les bibliothèques du monde entier.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,7 +608,9 @@
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) C.J. Krebs, J.H. Myers, Population cycles in small mammals, Advances in Ecological Research, vol. 8, Londres, Academic Press, 1974, p. 267–399  (ISBN 9780120139088).
 (en) J.H. Myers, Can a general hypothesis explain population-cycles of forest Lepidoptera, Advances in Ecological Research no 18, 1988, p. 179-242.
@@ -626,10 +646,12 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2004 : médaille d'or de l'Entomological Society Canada (Société entomologique du Canada)[1].
-2009 : prix McCarthy pour l'ensemble de ses réalisations et membre honoraire élu de la Professional Pest Management Association of British Columbia[2] (Association professionnelle de la lutte antiparasitaire de la Colombie-Britannique).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 : médaille d'or de l'Entomological Society Canada (Société entomologique du Canada).
+2009 : prix McCarthy pour l'ensemble de ses réalisations et membre honoraire élu de la Professional Pest Management Association of British Columbia (Association professionnelle de la lutte antiparasitaire de la Colombie-Britannique).
 2015 : élue membre honoraire de la Société entomologique du Canada.
 2018 : prix Cornerstone pour les contributions aux femmes en STIM de l'université de Chatham, à Pittsburg.</t>
         </is>
